--- a/PHAN_TICH_DINH_LUONG_TRONG_QUAN_LY/BT Thực hành 01.xlsx
+++ b/PHAN_TICH_DINH_LUONG_TRONG_QUAN_LY/BT Thực hành 01.xlsx
@@ -2614,7 +2614,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
